--- a/업무표지/업무 표지 견출지 간지.xlsx
+++ b/업무표지/업무 표지 견출지 간지.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7.5X2.5 (2)'!$A$1:$AG$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'7.5X2.5 (3)'!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'7.5X2.5 (3)'!$A$1:$AG$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'7.5X5.0 (1)'!$A$1:$Q$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>음악</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>반야불교대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협의체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,6 +488,15 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,15 +514,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1767,10 +1771,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5:AF5"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1844,48 +1848,48 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="14"/>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
-      <c r="R2" s="27" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="R2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="V2" s="27" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="V2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="29"/>
-      <c r="Z2" s="27" t="s">
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Z2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="29"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="23"/>
+      <c r="AD2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="29"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="23"/>
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="J3" s="21" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="J3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
       <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
@@ -1913,21 +1917,21 @@
       <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="27">
         <v>44801</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="F4" s="24">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="F4" s="27">
         <v>44802</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="J4" s="24">
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="J4" s="27">
         <v>44803</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
       <c r="N4" s="18">
         <v>44803</v>
       </c>
@@ -1955,24 +1959,24 @@
       <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="27" t="str">
         <f>TEXT(B4,"aaaa")</f>
         <v>일요일</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="F5" s="24" t="str">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="F5" s="27" t="str">
         <f>TEXT(F4,"aaaa")</f>
         <v>월요일</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="J5" s="24" t="str">
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="J5" s="27" t="str">
         <f>TEXT(J4,"aaaa")</f>
         <v>화요일</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
       <c r="N5" s="18" t="str">
         <f>TEXT(N4,"aaaa")</f>
         <v>화요일</v>
@@ -2161,127 +2165,131 @@
       <c r="AF11" s="4"/>
     </row>
     <row r="12" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="7"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="7"/>
-    </row>
-    <row r="15" spans="1:32" s="11" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="F15" s="12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="7"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="7"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="7"/>
+    </row>
+    <row r="16" spans="1:32" s="11" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="J15" s="12" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="J16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="N15" s="12" t="s">
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="N16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="R15" s="12" t="s">
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="R16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="14"/>
-      <c r="Z15" s="12" t="s">
+      <c r="S16" s="13"/>
+      <c r="T16" s="14"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+      <c r="Z16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="14"/>
-      <c r="AD15" s="12" t="s">
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="14"/>
+      <c r="AD16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="14"/>
-    </row>
-    <row r="16" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="10"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="10"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="10"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="10"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="14"/>
     </row>
     <row r="17" spans="2:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="4"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="4"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="4"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="4"/>
+      <c r="B17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="10"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="10"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="10"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="10"/>
     </row>
     <row r="18" spans="2:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="18">
+        <v>44797</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="F18" s="2"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
@@ -2305,9 +2313,12 @@
       <c r="AF18" s="4"/>
     </row>
     <row r="19" spans="2:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="18" t="str">
+        <f>TEXT(B18,"aaaa")</f>
+        <v>수요일</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
       <c r="F19" s="2"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
@@ -2461,46 +2472,102 @@
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="2:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="7"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="7"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="7"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="4"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="4"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="4"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="4"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="2:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="4"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="4"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="4"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="4"/>
+    </row>
+    <row r="27" spans="2:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="7"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="7"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="7"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AD15:AF15"/>
+  <mergeCells count="43">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AD16:AF16"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -2514,23 +2581,22 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="Z3:AB3"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/업무표지/업무 표지 견출지 간지.xlsx
+++ b/업무표지/업무 표지 견출지 간지.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>음악</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>협의체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서대출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,6 +500,15 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -504,15 +525,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1774,7 +1786,7 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="J17" sqref="J17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1848,48 +1860,48 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="14"/>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-      <c r="R2" s="21" t="s">
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
+      <c r="R2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23"/>
-      <c r="V2" s="21" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="V2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="22"/>
-      <c r="X2" s="23"/>
-      <c r="Z2" s="21" t="s">
+      <c r="W2" s="25"/>
+      <c r="X2" s="26"/>
+      <c r="Z2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="23"/>
-      <c r="AD2" s="21" t="s">
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+      <c r="AD2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="23"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="26"/>
     </row>
     <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="J3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
       <c r="N3" s="15" t="s">
         <v>23</v>
       </c>
@@ -1917,21 +1929,21 @@
       <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+      <c r="B4" s="21">
         <v>44801</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="F4" s="27">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="F4" s="21">
         <v>44802</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="J4" s="27">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="J4" s="21">
         <v>44803</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
       <c r="N4" s="18">
         <v>44803</v>
       </c>
@@ -1959,24 +1971,24 @@
       <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="str">
+      <c r="B5" s="21" t="str">
         <f>TEXT(B4,"aaaa")</f>
         <v>일요일</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="F5" s="27" t="str">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="F5" s="21" t="str">
         <f>TEXT(F4,"aaaa")</f>
         <v>월요일</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-      <c r="J5" s="27" t="str">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="J5" s="21" t="str">
         <f>TEXT(J4,"aaaa")</f>
         <v>화요일</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="N5" s="18" t="str">
         <f>TEXT(N4,"aaaa")</f>
         <v>화요일</v>
@@ -2217,21 +2229,21 @@
       <c r="AF13" s="7"/>
     </row>
     <row r="16" spans="1:32" s="11" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="F16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-      <c r="J16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="F16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="J16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
       <c r="N16" s="12" t="s">
         <v>11</v>
       </c>
@@ -2262,12 +2274,16 @@
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="F17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="J17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
       <c r="N17" s="8"/>
       <c r="O17" s="9"/>
       <c r="P17" s="10"/>
@@ -2290,12 +2306,16 @@
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
+      <c r="F18" s="18">
+        <v>44797</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
@@ -2319,12 +2339,17 @@
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
+      <c r="F19" s="18" t="str">
+        <f>TEXT(F18,"aaaa")</f>
+        <v>수요일</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
+      <c r="J19" s="18">
+        <v>44797</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3"/>
       <c r="P19" s="4"/>
@@ -2348,9 +2373,12 @@
       <c r="F20" s="2"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="4"/>
+      <c r="J20" s="18" t="str">
+        <f>TEXT(J19,"aaaa")</f>
+        <v>수요일</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
@@ -2550,21 +2578,18 @@
       <c r="AF27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="N5:P5"/>
+  <mergeCells count="50">
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Z5:AB5"/>
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="Z16:AB16"/>
     <mergeCell ref="AD16:AF16"/>
@@ -2581,19 +2606,29 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R5:T5"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="R16:T16"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
